--- a/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>198788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173616</v>
+        <v>176118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224923</v>
+        <v>225478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1926756566615146</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1682773155029392</v>
+        <v>0.1707030664800973</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2180071464050694</v>
+        <v>0.2185451848141882</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>335</v>
@@ -765,19 +765,19 @@
         <v>341468</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>309641</v>
+        <v>310062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>374679</v>
+        <v>374012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.259648958839735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2354480008429703</v>
+        <v>0.2357686599522823</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2849028861398493</v>
+        <v>0.2843953756817834</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>538</v>
@@ -786,19 +786,19 @@
         <v>540255</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500211</v>
+        <v>500342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>581924</v>
+        <v>579554</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2302059551225538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2131428741600891</v>
+        <v>0.2131986641675869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2479613050574053</v>
+        <v>0.2469513893769592</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>832935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>806800</v>
+        <v>806245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>858107</v>
+        <v>855605</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8073243433384855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7819928535949305</v>
+        <v>0.7814548151858117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8317226844970608</v>
+        <v>0.8292969335199027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>956</v>
@@ -836,19 +836,19 @@
         <v>973645</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>940434</v>
+        <v>941101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1005472</v>
+        <v>1005051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7403510411602651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7150971138601507</v>
+        <v>0.7156046243182163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7645519991570296</v>
+        <v>0.7642313400477172</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1791</v>
@@ -857,19 +857,19 @@
         <v>1806580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1764911</v>
+        <v>1767281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1846624</v>
+        <v>1846493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7697940448774462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7520386949425947</v>
+        <v>0.7530486106230407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7868571258399109</v>
+        <v>0.786801335832413</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>281950</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248923</v>
+        <v>251213</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314702</v>
+        <v>312175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1665851985217552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1470715127227733</v>
+        <v>0.1484249361583423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1859357785534901</v>
+        <v>0.1844432154907168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>367</v>
@@ -982,19 +982,19 @@
         <v>376447</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>343512</v>
+        <v>341812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>409939</v>
+        <v>409306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2372463790686925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2164902820957369</v>
+        <v>0.2154184219072251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2583543023526086</v>
+        <v>0.2579551438621745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>640</v>
@@ -1003,19 +1003,19 @@
         <v>658397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>608562</v>
+        <v>609717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705510</v>
+        <v>709486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2007759561804388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1855790624669075</v>
+        <v>0.1859311723212918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2151429951615053</v>
+        <v>0.2163556591121715</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1377826</v>
+        <v>1380353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1443605</v>
+        <v>1441315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8334148014782448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8140642214465101</v>
+        <v>0.8155567845092832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8529284872772268</v>
+        <v>0.8515750638416576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1186</v>
@@ -1053,19 +1053,19 @@
         <v>1210286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1176794</v>
+        <v>1177427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1243221</v>
+        <v>1244921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7627536209313075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7416456976473919</v>
+        <v>0.7420448561378256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7835097179042632</v>
+        <v>0.784581578092775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2561</v>
@@ -1074,19 +1074,19 @@
         <v>2620863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2573750</v>
+        <v>2569774</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2670698</v>
+        <v>2669543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7992240438195611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7848570048384944</v>
+        <v>0.7836443408878285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8144209375330924</v>
+        <v>0.8140688276787083</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>79608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63252</v>
+        <v>63970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98660</v>
+        <v>97543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1443729657627011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1147096053817366</v>
+        <v>0.1160120045048437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1789232785086879</v>
+        <v>0.176898941591583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -1199,19 +1199,19 @@
         <v>106095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86826</v>
+        <v>87926</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125541</v>
+        <v>123883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2226950217053301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1822502925110646</v>
+        <v>0.1845590594845667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2635141838964392</v>
+        <v>0.2600326604486093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -1220,19 +1220,19 @@
         <v>185703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162094</v>
+        <v>160163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212963</v>
+        <v>211836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1806765543136316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1577068202040579</v>
+        <v>0.1558278520616746</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2071986169722184</v>
+        <v>0.2061025960999514</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>471800</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452748</v>
+        <v>453865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>488156</v>
+        <v>487438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8556270342372989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8210767214913122</v>
+        <v>0.8231010584084171</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8852903946182634</v>
+        <v>0.8839879954951563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>351</v>
@@ -1270,19 +1270,19 @@
         <v>370317</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>350871</v>
+        <v>352529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389586</v>
+        <v>388486</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7773049782946698</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7364858161035609</v>
+        <v>0.7399673395513908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8177497074889355</v>
+        <v>0.8154409405154334</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>805</v>
@@ -1291,19 +1291,19 @@
         <v>842117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>814857</v>
+        <v>815984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865726</v>
+        <v>867657</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8193234456863684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7928013830277817</v>
+        <v>0.7938974039000486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8422931797959422</v>
+        <v>0.8441721479383254</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>560346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.171063724049147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>803</v>
@@ -1416,19 +1416,19 @@
         <v>824009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2439153450952016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1352</v>
@@ -1437,19 +1437,19 @@
         <v>1384355</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2080511926119917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2715313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2493</v>
@@ -1487,19 +1487,19 @@
         <v>2554248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5157</v>
@@ -1508,19 +1508,19 @@
         <v>5269560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>250948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225035</v>
+        <v>225264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>280367</v>
+        <v>281213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2576688476572666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2310618301118941</v>
+        <v>0.2312974321287802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2878759744837184</v>
+        <v>0.288744735851826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>384</v>
@@ -1872,19 +1872,19 @@
         <v>409807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>379662</v>
+        <v>374113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>442966</v>
+        <v>444043</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3065492939759829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2839998829934579</v>
+        <v>0.279849172379598</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3313538432537021</v>
+        <v>0.3321589233351508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>615</v>
@@ -1893,19 +1893,19 @@
         <v>660755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>613146</v>
+        <v>615400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>706970</v>
+        <v>704528</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2859475934315788</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2653445400136039</v>
+        <v>0.2663200957645448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3059477491556309</v>
+        <v>0.3048911183900094</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>722968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>693549</v>
+        <v>692703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>748881</v>
+        <v>748652</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7423311523427335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7121240255162815</v>
+        <v>0.7112552641481739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7689381698881058</v>
+        <v>0.7687025678712198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>862</v>
@@ -1943,19 +1943,19 @@
         <v>927031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>893872</v>
+        <v>892795</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>957176</v>
+        <v>962725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.693450706024017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6686461567462979</v>
+        <v>0.6678410766648492</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.716000117006542</v>
+        <v>0.7201508276204019</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1538</v>
@@ -1964,19 +1964,19 @@
         <v>1649999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1603784</v>
+        <v>1606226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1697608</v>
+        <v>1695354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7140524065684212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6940522508443691</v>
+        <v>0.6951088816099905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.734655459986396</v>
+        <v>0.7336799042354551</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>385418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>349465</v>
+        <v>348914</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>419027</v>
+        <v>423635</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1964413245976003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.178116476816215</v>
+        <v>0.1778358015534642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2135711460890868</v>
+        <v>0.2159197824272736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>421</v>
@@ -2089,19 +2089,19 @@
         <v>453193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>415710</v>
+        <v>414572</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>490782</v>
+        <v>491284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2581330745029636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2367835627388798</v>
+        <v>0.2361352933080823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2795430903400785</v>
+        <v>0.2798291604025789</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>786</v>
@@ -2110,19 +2110,19 @@
         <v>838611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>786474</v>
+        <v>785729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>894019</v>
+        <v>890024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.225575109301022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2115508865714882</v>
+        <v>0.211350507881739</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2404791489492794</v>
+        <v>0.2394045319983218</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1542976</v>
+        <v>1538368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1612538</v>
+        <v>1613089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8035586754023997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7864288539109132</v>
+        <v>0.7840802175727264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8218835231837851</v>
+        <v>0.8221641984465358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1212</v>
@@ -2160,19 +2160,19 @@
         <v>1302463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1264874</v>
+        <v>1264372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1339946</v>
+        <v>1341084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7418669254970364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7204569096599215</v>
+        <v>0.7201708395974211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7632164372611202</v>
+        <v>0.763864706691918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2701</v>
@@ -2181,19 +2181,19 @@
         <v>2879048</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2823640</v>
+        <v>2827635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2931185</v>
+        <v>2931930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.774424890698978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7595208510507204</v>
+        <v>0.7605954680016782</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7884491134285118</v>
+        <v>0.7886494921182611</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>69464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54023</v>
+        <v>55387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86552</v>
+        <v>86241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1443619512097673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1122708543392713</v>
+        <v>0.1151054113675347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1798746943716793</v>
+        <v>0.1792282871636419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -2306,19 +2306,19 @@
         <v>114308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94009</v>
+        <v>94507</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135617</v>
+        <v>133801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2492376897529044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2049781680155592</v>
+        <v>0.2060622408430165</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2957004381210948</v>
+        <v>0.2917394093239681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -2327,19 +2327,19 @@
         <v>183773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158433</v>
+        <v>157404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>206926</v>
+        <v>210081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1955415990006449</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.168578978504608</v>
+        <v>0.1674839993728524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2201774335686686</v>
+        <v>0.2235350290733044</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>411717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>394629</v>
+        <v>394940</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427158</v>
+        <v>425794</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8556380487902326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8201253056283206</v>
+        <v>0.8207717128363579</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8877291456607282</v>
+        <v>0.884894588632465</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -2377,19 +2377,19 @@
         <v>344323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323014</v>
+        <v>324830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>364622</v>
+        <v>364124</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7507623102470956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7042995618789052</v>
+        <v>0.7082605906760318</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7950218319844409</v>
+        <v>0.7939377591569833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>683</v>
@@ -2398,19 +2398,19 @@
         <v>756040</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>732887</v>
+        <v>729732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>781380</v>
+        <v>782409</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8044584009993552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7798225664313315</v>
+        <v>0.7764649709266958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8314210214953921</v>
+        <v>0.8325160006271476</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>705831</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>659470</v>
+        <v>658190</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>757325</v>
+        <v>754547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2065583356582004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1929910888395737</v>
+        <v>0.1926164212879804</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2216279653993382</v>
+        <v>0.2208148386489963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>906</v>
@@ -2523,19 +2523,19 @@
         <v>977308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>927036</v>
+        <v>926474</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1038305</v>
+        <v>1038597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.275210741618971</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2610542835876594</v>
+        <v>0.2608958466608086</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2923877093278912</v>
+        <v>0.2924699419781724</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1568</v>
@@ -2544,19 +2544,19 @@
         <v>1683138</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1606637</v>
+        <v>1606257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1758481</v>
+        <v>1754619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2415447528864924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2305662151459212</v>
+        <v>0.230511708212458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2523570962781152</v>
+        <v>0.2518028880581989</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2711270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2659776</v>
+        <v>2662554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2757631</v>
+        <v>2758911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7934416643417996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7783720346006618</v>
+        <v>0.7791851613510036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8070089111604263</v>
+        <v>0.8073835787120195</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2385</v>
@@ -2594,19 +2594,19 @@
         <v>2573817</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2512820</v>
+        <v>2512528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2624089</v>
+        <v>2624651</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.724789258381029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7076122906721087</v>
+        <v>0.7075300580218274</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7389457164123405</v>
+        <v>0.7391041533391912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4922</v>
@@ -2615,19 +2615,19 @@
         <v>5285087</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5209744</v>
+        <v>5213606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5361588</v>
+        <v>5361968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7584552471135075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7476429037218848</v>
+        <v>0.7481971119418013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7694337848540788</v>
+        <v>0.769488291787542</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>139071</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116332</v>
+        <v>118606</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160096</v>
+        <v>160706</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1848478425685271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1546241846185541</v>
+        <v>0.1576463603034376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2127934544687867</v>
+        <v>0.2136038465789573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -2979,19 +2979,19 @@
         <v>226995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198098</v>
+        <v>199168</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>255695</v>
+        <v>256795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.228877686783973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1997415353946567</v>
+        <v>0.2008197563744857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2578156267305586</v>
+        <v>0.2589251094221275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>339</v>
@@ -3000,19 +3000,19 @@
         <v>366066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>332132</v>
+        <v>329437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>402319</v>
+        <v>401077</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2098847778625664</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.19042860941067</v>
+        <v>0.1888833267397996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2306706408991241</v>
+        <v>0.229958751184754</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>613283</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>592258</v>
+        <v>591648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>636022</v>
+        <v>633748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.815152157431473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7872065455312137</v>
+        <v>0.7863961534210425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8453758153814462</v>
+        <v>0.8423536396965623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>693</v>
@@ -3050,19 +3050,19 @@
         <v>764778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>736078</v>
+        <v>734978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>793675</v>
+        <v>792605</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.771122313216027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7421843732694415</v>
+        <v>0.7410748905778722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8002584646053434</v>
+        <v>0.7991802436255141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1311</v>
@@ -3071,19 +3071,19 @@
         <v>1378061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1341808</v>
+        <v>1343050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1411995</v>
+        <v>1414690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7901152221374336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7693293591008757</v>
+        <v>0.7700412488152459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8095713905893297</v>
+        <v>0.8111166732602003</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>346859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>312152</v>
+        <v>313362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>381479</v>
+        <v>384011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1675938092755359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.150824364448477</v>
+        <v>0.151408934387574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1843214727285349</v>
+        <v>0.185545116642963</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>378</v>
@@ -3196,19 +3196,19 @@
         <v>394868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>363819</v>
+        <v>358615</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>429816</v>
+        <v>432257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1986839319216959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1830614580648025</v>
+        <v>0.1804428534997026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2162689427355774</v>
+        <v>0.217496792336956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>696</v>
@@ -3217,19 +3217,19 @@
         <v>741726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>691738</v>
+        <v>691584</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>790496</v>
+        <v>799168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1828238246443473</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.170502513321679</v>
+        <v>0.1704645947512368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1948448108014268</v>
+        <v>0.1969822463313102</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1688159</v>
+        <v>1685627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1757486</v>
+        <v>1756276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8324061907244641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8156785272714651</v>
+        <v>0.8144548833570368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.849175635551523</v>
+        <v>0.8485910656124258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1529</v>
@@ -3267,19 +3267,19 @@
         <v>1592548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1557600</v>
+        <v>1555159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1623597</v>
+        <v>1628801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8013160680783041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7837310572644227</v>
+        <v>0.7825032076630442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8169385419351975</v>
+        <v>0.8195571465002974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3157</v>
@@ -3288,19 +3288,19 @@
         <v>3315328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3266558</v>
+        <v>3257886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3365316</v>
+        <v>3365470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8171761753556527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8051551891985732</v>
+        <v>0.8030177536686895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.829497486678321</v>
+        <v>0.8295354052487628</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>74892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59500</v>
+        <v>58417</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94758</v>
+        <v>91695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1374267475305955</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1091822275925954</v>
+        <v>0.1071951795293303</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1738818834442022</v>
+        <v>0.1682605491144926</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -3413,19 +3413,19 @@
         <v>135255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117240</v>
+        <v>116196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157828</v>
+        <v>158241</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2475143260202402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2145477202493778</v>
+        <v>0.212637380756038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2888222857702518</v>
+        <v>0.2895786478233012</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -3434,19 +3434,19 @@
         <v>210147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184341</v>
+        <v>183594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>237512</v>
+        <v>240560</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1925458857594687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1689012837739552</v>
+        <v>0.1682167325251047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2176187637283478</v>
+        <v>0.2204116165808145</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>470067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>450201</v>
+        <v>453264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>485459</v>
+        <v>486542</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8625732524694045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8261181165557979</v>
+        <v>0.8317394508855073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8908177724074047</v>
+        <v>0.8928048204706696</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -3484,19 +3484,19 @@
         <v>411198</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>388625</v>
+        <v>388212</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>429213</v>
+        <v>430257</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7524856739797597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7111777142297482</v>
+        <v>0.7104213521766989</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7854522797506223</v>
+        <v>0.787362619243962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>828</v>
@@ -3505,19 +3505,19 @@
         <v>881265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>853900</v>
+        <v>850852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>907071</v>
+        <v>907818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8074541142405313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7823812362716522</v>
+        <v>0.7795883834191856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8310987162260448</v>
+        <v>0.8317832674748954</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>560822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>514977</v>
+        <v>519593</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>607116</v>
+        <v>611089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1665665690294689</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1529503683984514</v>
+        <v>0.1543214144315322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1803160909795541</v>
+        <v>0.1814962851333973</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>704</v>
@@ -3630,19 +3630,19 @@
         <v>757117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>702673</v>
+        <v>713520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>803641</v>
+        <v>805642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2147459359655719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1993035911034582</v>
+        <v>0.2023802630224458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2279418389512334</v>
+        <v>0.2285092309958714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1230</v>
@@ -3651,19 +3651,19 @@
         <v>1317939</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1244845</v>
+        <v>1248272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1380281</v>
+        <v>1376714</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1912108740087891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1806062646097127</v>
+        <v>0.181103390356407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2002556727153825</v>
+        <v>0.1997382236550169</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2806130</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2759836</v>
+        <v>2755863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2851975</v>
+        <v>2847359</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8334334309705311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8196839090204457</v>
+        <v>0.8185037148666029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8470496316015484</v>
+        <v>0.8456785855684679</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2617</v>
@@ -3701,19 +3701,19 @@
         <v>2768524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2722000</v>
+        <v>2719999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2822968</v>
+        <v>2812121</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7852540640344281</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7720581610487667</v>
+        <v>0.7714907690041287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8006964088965418</v>
+        <v>0.7976197369775543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5296</v>
@@ -3722,19 +3722,19 @@
         <v>5574654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5512312</v>
+        <v>5515879</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5647748</v>
+        <v>5644321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8087891259912109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7997443272846174</v>
+        <v>0.800261776344983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8193937353902875</v>
+        <v>0.818896609643593</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>141516</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121670</v>
+        <v>124193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161298</v>
+        <v>164878</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2446140562947848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2103097404136152</v>
+        <v>0.2146702860508698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2788074829466069</v>
+        <v>0.2849958414543975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>412</v>
@@ -4086,19 +4086,19 @@
         <v>239669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221306</v>
+        <v>219565</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>259840</v>
+        <v>259185</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.292460632416859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2700537068660616</v>
+        <v>0.2679285354702535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3170758435469034</v>
+        <v>0.3162756281753656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>583</v>
@@ -4107,19 +4107,19 @@
         <v>381185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>352861</v>
+        <v>353688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>411518</v>
+        <v>410716</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2726607286044526</v>
+        <v>0.2726607286044525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2524005998596137</v>
+        <v>0.2529920762171238</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.294357399881372</v>
+        <v>0.2937838711886698</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>437013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417231</v>
+        <v>413651</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456859</v>
+        <v>454336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7553859437052153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7211925170533934</v>
+        <v>0.7150041585456024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7896902595863848</v>
+        <v>0.78532971394913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1011</v>
@@ -4157,19 +4157,19 @@
         <v>579821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559650</v>
+        <v>560305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598184</v>
+        <v>599925</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.707539367583141</v>
+        <v>0.7075393675831411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6829241564530967</v>
+        <v>0.6837243718246346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7299462931339386</v>
+        <v>0.7320714645297465</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1531</v>
@@ -4178,19 +4178,19 @@
         <v>1016835</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>986502</v>
+        <v>987304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1045159</v>
+        <v>1044332</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7273392713955475</v>
+        <v>0.7273392713955473</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7056426001186282</v>
+        <v>0.7062161288113303</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7475994001403865</v>
+        <v>0.7470079237828763</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>431483</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>388263</v>
+        <v>390727</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>474995</v>
+        <v>476425</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1934411140926603</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1740648570873782</v>
+        <v>0.1751695988759652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2129483620567712</v>
+        <v>0.2135892422541115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>660</v>
@@ -4303,19 +4303,19 @@
         <v>503018</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>467188</v>
+        <v>469864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>539671</v>
+        <v>539740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2320486345515602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2155195088113432</v>
+        <v>0.2167539612017504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.24895720038828</v>
+        <v>0.248988599640479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1043</v>
@@ -4324,19 +4324,19 @@
         <v>934501</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>879956</v>
+        <v>874587</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>999723</v>
+        <v>989370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2124690796830047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2000676028005357</v>
+        <v>0.1988468400309332</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2272978143593882</v>
+        <v>0.2249440493445036</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1799083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1755571</v>
+        <v>1754141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1842303</v>
+        <v>1839839</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8065588859073397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7870516379432284</v>
+        <v>0.7864107577458886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8259351429126216</v>
+        <v>0.8248304011240348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2258</v>
@@ -4374,19 +4374,19 @@
         <v>1664710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1628057</v>
+        <v>1627988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1700540</v>
+        <v>1697864</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7679513654484397</v>
+        <v>0.7679513654484398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7510427996117202</v>
+        <v>0.751011400359521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7844804911886568</v>
+        <v>0.7832460387982494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3867</v>
@@ -4395,19 +4395,19 @@
         <v>3463793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3398571</v>
+        <v>3408924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3518338</v>
+        <v>3523707</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7875309203169952</v>
+        <v>0.7875309203169953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7727021856406118</v>
+        <v>0.7750559506554963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7999323971994644</v>
+        <v>0.8011531599690659</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>159315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134986</v>
+        <v>133847</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184387</v>
+        <v>184409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2245081737019547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1902243354235273</v>
+        <v>0.1886189675221598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2598403540141225</v>
+        <v>0.2598705475605752</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>238</v>
@@ -4520,19 +4520,19 @@
         <v>190096</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170098</v>
+        <v>169500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212671</v>
+        <v>212452</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2589851594786794</v>
+        <v>0.2589851594786793</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2317390525545156</v>
+        <v>0.2309242254950281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2897411001159025</v>
+        <v>0.2894423217788223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>378</v>
@@ -4541,19 +4541,19 @@
         <v>349411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317538</v>
+        <v>317713</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>385562</v>
+        <v>387569</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2420378888204067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2199593225029405</v>
+        <v>0.2200803448163524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2670797434466599</v>
+        <v>0.2684702710474941</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>550302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525230</v>
+        <v>525208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>574631</v>
+        <v>575770</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7754918262980453</v>
+        <v>0.775491826298045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7401596459858769</v>
+        <v>0.7401294524394246</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8097756645764725</v>
+        <v>0.8113810324778402</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>765</v>
@@ -4591,19 +4591,19 @@
         <v>543909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>521334</v>
+        <v>521553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>563907</v>
+        <v>564505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7410148405213208</v>
+        <v>0.7410148405213207</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.710258899884098</v>
+        <v>0.710557678221178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7682609474454845</v>
+        <v>0.7690757745049718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1305</v>
@@ -4612,19 +4612,19 @@
         <v>1094210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1058059</v>
+        <v>1056052</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1126083</v>
+        <v>1125908</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7579621111795933</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7329202565533404</v>
+        <v>0.7315297289525059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7800406774970595</v>
+        <v>0.7799196551836476</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>732314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>678934</v>
+        <v>676551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>784951</v>
+        <v>792622</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2081199930878281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1929494510261902</v>
+        <v>0.1922723144361174</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2230792060263683</v>
+        <v>0.2252592094939911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1310</v>
@@ -4737,19 +4737,19 @@
         <v>932783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>881771</v>
+        <v>888898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>979736</v>
+        <v>980359</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.250665788794863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2369574599966394</v>
+        <v>0.2388724944117986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2632835278221552</v>
+        <v>0.263450879875895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2004</v>
@@ -4758,19 +4758,19 @@
         <v>1665098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1591301</v>
+        <v>1597811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1730693</v>
+        <v>1733430</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2299879203240841</v>
+        <v>0.2299879203240842</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2197949470582472</v>
+        <v>0.2206940409715987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2390480865522644</v>
+        <v>0.2394262362347734</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2786398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2733761</v>
+        <v>2726090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2839778</v>
+        <v>2842161</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7918800069121719</v>
+        <v>0.791880006912172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7769207939736317</v>
+        <v>0.7747407905060089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8070505489738099</v>
+        <v>0.8077276855638826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4034</v>
@@ -4808,19 +4808,19 @@
         <v>2788439</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2741486</v>
+        <v>2740863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2839451</v>
+        <v>2832324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.749334211205137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.736716472177845</v>
+        <v>0.7365491201241051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7630425400033607</v>
+        <v>0.7611275055882014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6703</v>
@@ -4829,19 +4829,19 @@
         <v>5574837</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5509242</v>
+        <v>5506505</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5648634</v>
+        <v>5642124</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7700120796759156</v>
+        <v>0.7700120796759159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7609519134477357</v>
+        <v>0.7605737637652266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7802050529417528</v>
+        <v>0.7793059590284012</v>
       </c>
     </row>
     <row r="15">
